--- a/teaching/traditional_assets/database/data/south_africa/south_africa_semiconductor.xlsx
+++ b/teaching/traditional_assets/database/data/south_africa/south_africa_semiconductor.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.0005531914893617021</v>
+        <v>-0.01158682634730539</v>
       </c>
       <c r="H2">
-        <v>0.0005531914893617021</v>
+        <v>-0.01158682634730539</v>
       </c>
       <c r="I2">
-        <v>-0.0152000926520643</v>
+        <v>-0.04817250612141574</v>
       </c>
       <c r="J2">
-        <v>-0.0152000926520643</v>
+        <v>-0.04817250612141574</v>
       </c>
       <c r="K2">
-        <v>0.328</v>
+        <v>-4.24</v>
       </c>
       <c r="L2">
-        <v>0.01395744680851064</v>
+        <v>-0.1269461077844312</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,79 +624,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.445</v>
+        <v>0.405</v>
       </c>
       <c r="V2">
-        <v>0.05241460541813898</v>
+        <v>0.03461538461538462</v>
       </c>
       <c r="W2">
-        <v>0.2326241134751773</v>
+        <v>-1.675889328063241</v>
       </c>
       <c r="X2">
-        <v>0.1396901833392603</v>
+        <v>0.1691901365342467</v>
       </c>
       <c r="Y2">
-        <v>0.092933930135917</v>
+        <v>-1.845079464597488</v>
       </c>
       <c r="Z2">
-        <v>18.99740758487395</v>
+        <v>-11.92349764934419</v>
       </c>
       <c r="AA2">
-        <v>-0.2887623554391132</v>
+        <v>0.5743847635017191</v>
       </c>
       <c r="AB2">
-        <v>0.1308223267227526</v>
+        <v>0.1188775123220451</v>
       </c>
       <c r="AC2">
-        <v>-0.4195846821618658</v>
+        <v>0.455507251179674</v>
       </c>
       <c r="AD2">
-        <v>0.6840000000000001</v>
+        <v>7.44</v>
       </c>
       <c r="AE2">
-        <v>0.1260108866175556</v>
+        <v>0.08980852227642722</v>
       </c>
       <c r="AF2">
-        <v>0.8100108866175557</v>
+        <v>7.529808522276427</v>
       </c>
       <c r="AG2">
-        <v>0.3650108866175557</v>
+        <v>7.124808522276427</v>
       </c>
       <c r="AH2">
-        <v>0.08709784284050008</v>
+        <v>0.3915696047391036</v>
       </c>
       <c r="AI2">
-        <v>0.2425174390487863</v>
+        <v>0.6441344619056345</v>
       </c>
       <c r="AJ2">
-        <v>0.04122082866879262</v>
+        <v>0.3784797340087285</v>
       </c>
       <c r="AK2">
-        <v>0.1260827336798113</v>
+        <v>0.6313628191574469</v>
       </c>
       <c r="AL2">
-        <v>0.477</v>
+        <v>0.667</v>
       </c>
       <c r="AM2">
-        <v>-0.533</v>
+        <v>0.665</v>
       </c>
       <c r="AN2">
-        <v>-6.000000000000001</v>
+        <v>-9.600000000000001</v>
       </c>
       <c r="AO2">
-        <v>-0.7819706498951782</v>
+        <v>-2.443778110944527</v>
       </c>
       <c r="AP2">
-        <v>-3.201849882610138</v>
+        <v>-9.193301319066359</v>
       </c>
       <c r="AQ2">
-        <v>0.699812382739212</v>
+        <v>-2.451127819548872</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.0005531914893617021</v>
+        <v>-0.01158682634730539</v>
       </c>
       <c r="H3">
-        <v>0.0005531914893617021</v>
+        <v>-0.01158682634730539</v>
       </c>
       <c r="I3">
-        <v>-0.0152000926520643</v>
+        <v>-0.04817250612141574</v>
       </c>
       <c r="J3">
-        <v>-0.0152000926520643</v>
+        <v>-0.04817250612141574</v>
       </c>
       <c r="K3">
-        <v>0.328</v>
+        <v>-4.24</v>
       </c>
       <c r="L3">
-        <v>0.01395744680851064</v>
+        <v>-0.1269461077844312</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,7 +740,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,79 +749,79 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.445</v>
+        <v>0.405</v>
       </c>
       <c r="V3">
-        <v>0.05241460541813898</v>
+        <v>0.03461538461538462</v>
       </c>
       <c r="W3">
-        <v>0.2326241134751773</v>
+        <v>-1.675889328063241</v>
       </c>
       <c r="X3">
-        <v>0.1396901833392603</v>
+        <v>0.1691901365342467</v>
       </c>
       <c r="Y3">
-        <v>0.092933930135917</v>
+        <v>-1.845079464597488</v>
       </c>
       <c r="Z3">
-        <v>18.99740758487395</v>
+        <v>-11.92349764934419</v>
       </c>
       <c r="AA3">
-        <v>-0.2887623554391132</v>
+        <v>0.5743847635017191</v>
       </c>
       <c r="AB3">
-        <v>0.1308223267227526</v>
+        <v>0.1188775123220451</v>
       </c>
       <c r="AC3">
-        <v>-0.4195846821618658</v>
+        <v>0.455507251179674</v>
       </c>
       <c r="AD3">
-        <v>0.6840000000000001</v>
+        <v>7.44</v>
       </c>
       <c r="AE3">
-        <v>0.1260108866175556</v>
+        <v>0.08980852227642722</v>
       </c>
       <c r="AF3">
-        <v>0.8100108866175557</v>
+        <v>7.529808522276427</v>
       </c>
       <c r="AG3">
-        <v>0.3650108866175557</v>
+        <v>7.124808522276427</v>
       </c>
       <c r="AH3">
-        <v>0.08709784284050008</v>
+        <v>0.3915696047391036</v>
       </c>
       <c r="AI3">
-        <v>0.2425174390487863</v>
+        <v>0.6441344619056345</v>
       </c>
       <c r="AJ3">
-        <v>0.04122082866879262</v>
+        <v>0.3784797340087285</v>
       </c>
       <c r="AK3">
-        <v>0.1260827336798113</v>
+        <v>0.6313628191574469</v>
       </c>
       <c r="AL3">
-        <v>0.477</v>
+        <v>0.667</v>
       </c>
       <c r="AM3">
-        <v>-0.533</v>
+        <v>0.665</v>
       </c>
       <c r="AN3">
-        <v>-6.000000000000001</v>
+        <v>-9.600000000000001</v>
       </c>
       <c r="AO3">
-        <v>-0.7819706498951782</v>
+        <v>-2.443778110944527</v>
       </c>
       <c r="AP3">
-        <v>-3.201849882610138</v>
+        <v>-9.193301319066359</v>
       </c>
       <c r="AQ3">
-        <v>0.699812382739212</v>
+        <v>-2.451127819548872</v>
       </c>
     </row>
   </sheetData>
